--- a/src/main/resources/datatest/DonViTaiTroPage.xlsx
+++ b/src/main/resources/datatest/DonViTaiTroPage.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC\DNSG Auto\ProjectAutomation_DNSG-I\src\main\resources\datatest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDDE2DE-AF1D-4C2D-BB90-233CB6BE7259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThemDonVi" sheetId="1" r:id="rId1"/>
     <sheet name="XoaDonVi" sheetId="2" r:id="rId2"/>
     <sheet name="EditDonVi" sheetId="3" r:id="rId3"/>
-    <sheet name="AddNewEvent" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>No.</t>
   </si>
@@ -153,58 +146,19 @@
   </si>
   <si>
     <t>11.Verify Notification Message Text</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Add new event</t>
-  </si>
-  <si>
-    <t>1.Go to login page</t>
-  </si>
-  <si>
-    <t>5.Click on "9th Monthly B2B" tab</t>
-  </si>
-  <si>
-    <t>6.Scroll down to "Đăng ký tham gia 9th Monthly B2B element</t>
-  </si>
-  <si>
-    <t>7.Click on "Đăng ký gian hàng" button</t>
-  </si>
-  <si>
-    <t>8.SetText "Chức danh" field</t>
-  </si>
-  <si>
-    <t>Khách mời</t>
-  </si>
-  <si>
-    <t>9.Scroll down to "Tiếp theo" button</t>
-  </si>
-  <si>
-    <t>10.Click on "Tiếp theo" button</t>
-  </si>
-  <si>
-    <t>11.Click on "Tên sự kiện" dropdown</t>
-  </si>
-  <si>
-    <t>12.Click on "Nhịp cầu tuổi trẻ" select</t>
-  </si>
-  <si>
-    <t>13.Click on "Hoàn thành" button</t>
-  </si>
-  <si>
-    <t>14.Click on "Nhịp cầu tuổi trẻ" select</t>
-  </si>
-  <si>
-    <t>Đăng ký thành công!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -244,6 +198,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +212,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,8 +223,144 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +373,194 @@
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -421,40 +699,262 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -467,11 +967,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -481,6 +984,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,11 +999,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,190 +1015,93 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -700,7 +1112,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -728,40 +1140,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -959,12 +1485,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -974,15 +1499,15 @@
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="23.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
     <col min="6" max="6" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,142 +1527,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="23">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="22"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1146,16 +1671,17 @@
     <mergeCell ref="A2:A13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
+    <hyperlink ref="F10" r:id="rId2" display="https://github.com/QuangDK1/ProjectAutomation_DNSG"/>
+    <hyperlink ref="F3" r:id="rId3" display="admin@meu-solutions.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1165,15 +1691,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" customWidth="1"/>
-    <col min="5" max="5" width="37.81640625" customWidth="1"/>
-    <col min="6" max="6" width="55.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="23.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="37.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,153 +1719,154 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="25">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="17">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="18"/>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="22"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="22"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="6" max="6" width="49.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="19.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="32.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="49.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,133 +1886,133 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="28">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1494,214 +2021,10 @@
     <mergeCell ref="A2:A12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F10" r:id="rId2" tooltip="mailto:khanhhoa79999@gmail.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
+    <hyperlink ref="F10" r:id="rId2" display="khanhhoa79999@gmail.com" tooltip="mailto:khanhhoa79999@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BF641D-9FF0-4F12-A392-6F8E3014005B}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="48.08984375" customWidth="1"/>
-    <col min="6" max="6" width="49.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{9A6731E5-F532-44B3-9D8F-1ED2B0F400B6}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{B8303026-FB2B-4D0D-8A7A-876F3B5B5785}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>